--- a/home/Sample files/sample_employee_upload.xlsx
+++ b/home/Sample files/sample_employee_upload.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\webapp\ERP\home\Sample files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC695948-46A1-4951-8EA7-227C1BF3002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="153">
   <si>
     <t>eid</t>
   </si>
@@ -52,21 +46,9 @@
     <t>position_type</t>
   </si>
   <si>
-    <t>john.doe</t>
-  </si>
-  <si>
-    <t>jane.smith</t>
-  </si>
-  <si>
     <t>pass1234</t>
   </si>
   <si>
-    <t>pass5678</t>
-  </si>
-  <si>
-    <t>teacher</t>
-  </si>
-  <si>
     <t>hod</t>
   </si>
   <si>
@@ -347,13 +329,157 @@
   </si>
   <si>
     <t>BBA</t>
+  </si>
+  <si>
+    <t>pass1235</t>
+  </si>
+  <si>
+    <t>pass1236</t>
+  </si>
+  <si>
+    <t>pass1237</t>
+  </si>
+  <si>
+    <t>pass1238</t>
+  </si>
+  <si>
+    <t>pass1239</t>
+  </si>
+  <si>
+    <t>pass1240</t>
+  </si>
+  <si>
+    <t>pass1241</t>
+  </si>
+  <si>
+    <t>pass1242</t>
+  </si>
+  <si>
+    <t>pass1243</t>
+  </si>
+  <si>
+    <t>pass1244</t>
+  </si>
+  <si>
+    <t>pass1245</t>
+  </si>
+  <si>
+    <t>pass1246</t>
+  </si>
+  <si>
+    <t>pass1247</t>
+  </si>
+  <si>
+    <t>pass1248</t>
+  </si>
+  <si>
+    <t>pass1249</t>
+  </si>
+  <si>
+    <t>pass1250</t>
+  </si>
+  <si>
+    <t>pass1251</t>
+  </si>
+  <si>
+    <t>pass1252</t>
+  </si>
+  <si>
+    <t>pass1253</t>
+  </si>
+  <si>
+    <t>pass1254</t>
+  </si>
+  <si>
+    <t>pass1255</t>
+  </si>
+  <si>
+    <t>pass1256</t>
+  </si>
+  <si>
+    <t>pass1257</t>
+  </si>
+  <si>
+    <t>pass1258</t>
+  </si>
+  <si>
+    <t>pass1259</t>
+  </si>
+  <si>
+    <t>pass1260</t>
+  </si>
+  <si>
+    <t>pass1261</t>
+  </si>
+  <si>
+    <t>pass1262</t>
+  </si>
+  <si>
+    <t>pass1263</t>
+  </si>
+  <si>
+    <t>pass1264</t>
+  </si>
+  <si>
+    <t>pass1265</t>
+  </si>
+  <si>
+    <t>pass1266</t>
+  </si>
+  <si>
+    <t>pass1267</t>
+  </si>
+  <si>
+    <t>pass1268</t>
+  </si>
+  <si>
+    <t>pass1269</t>
+  </si>
+  <si>
+    <t>pass1270</t>
+  </si>
+  <si>
+    <t>pass1271</t>
+  </si>
+  <si>
+    <t>pass1272</t>
+  </si>
+  <si>
+    <t>pass1273</t>
+  </si>
+  <si>
+    <t>pass1274</t>
+  </si>
+  <si>
+    <t>pass1275</t>
+  </si>
+  <si>
+    <t>pass1276</t>
+  </si>
+  <si>
+    <t>pass1277</t>
+  </si>
+  <si>
+    <t>pass1278</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Shahbaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +494,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,10 +546,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -429,8 +566,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -468,9 +608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,7 +648,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -542,7 +682,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -577,10 +716,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -753,14 +891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
@@ -769,9 +907,11 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,922 +943,1444 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>56</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>306</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>320</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1088</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>1103</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>1150</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>1240</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>1394</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>1396</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>1501</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>1612</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>1639</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>1660</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>1665</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>1673</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>1684</v>
       </c>
+      <c r="B19" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>1759</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>1760</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>1778</v>
       </c>
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>1818</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>1826</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>1828</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>1830</v>
       </c>
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>1835</v>
       </c>
+      <c r="B27" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>1858</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C28" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>1867</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="C29" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>1877</v>
       </c>
+      <c r="B30" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C30" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>1884</v>
       </c>
+      <c r="B31" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>1888</v>
       </c>
+      <c r="B32" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C32" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>1890</v>
       </c>
+      <c r="B33" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>1897</v>
       </c>
+      <c r="B34" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C34" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>1910</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>1923</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="C36" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>1924</v>
       </c>
+      <c r="B37" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C37" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>139</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>1926</v>
       </c>
+      <c r="B38" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="F38" t="s">
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>1931</v>
       </c>
+      <c r="B39" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>1933</v>
       </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>1943</v>
       </c>
+      <c r="B41" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C41" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>1954</v>
       </c>
+      <c r="B42" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H42" t="s">
         <v>103</v>
       </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>1960</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="C43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>1980</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>146</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>1</v>
       </c>
+      <c r="B45" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" t="s">
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3">
         <v>2</v>
       </c>
+      <c r="B46" s="7" t="s">
+        <v>149</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="H46" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1728,6 +2390,9 @@
   <conditionalFormatting sqref="A2:A46">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/home/Sample files/sample_employee_upload.xlsx
+++ b/home/Sample files/sample_employee_upload.xlsx
@@ -472,7 +472,7 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>Shahbaz</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
       <c r="A34" s="2">
         <v>1897</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2392,6 +2392,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B34" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
